--- a/part2_Use-Python-in-Office/ch06_work-with-excel/6-5_work-with-cells/test_result-merge-cell.xlsx
+++ b/part2_Use-Python-in-Office/ch06_work-with-excel/6-5_work-with-cells/test_result-merge-cell.xlsx
@@ -1,40 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -46,81 +62,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -129,10 +95,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -170,69 +136,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -256,54 +224,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -313,7 +280,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -322,7 +289,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,7 +298,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -339,10 +306,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -371,7 +338,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -384,13 +351,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -408,564 +374,607 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1" s="1">
         <v>2</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1" s="1">
         <v>3</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1" s="1">
         <v>4</v>
       </c>
-      <c r="E1" t="n">
+      <c r="E1" s="1">
         <v>5</v>
       </c>
-      <c r="F1" t="n">
+      <c r="F1" s="1">
         <v>6</v>
       </c>
-      <c r="G1" t="n">
+      <c r="G1" s="1">
         <v>7</v>
       </c>
-      <c r="H1" t="n">
+      <c r="H1" s="1">
         <v>8</v>
       </c>
-      <c r="I1" t="n">
+      <c r="I1" s="1">
         <v>9</v>
       </c>
-      <c r="J1" t="n">
+      <c r="J1" s="1">
         <v>10</v>
       </c>
-      <c r="K1" t="n">
+      <c r="K1" s="1">
         <v>11</v>
       </c>
-      <c r="L1" t="n">
+      <c r="L1" s="1">
         <v>12</v>
       </c>
-      <c r="M1" t="n">
+      <c r="M1" s="1">
         <v>13</v>
       </c>
-      <c r="N1" t="n">
+      <c r="N1" s="1">
         <v>14</v>
       </c>
-      <c r="O1" t="n">
+      <c r="O1" s="1">
         <v>15</v>
       </c>
-      <c r="P1" t="n">
+      <c r="P1" s="1">
         <v>16</v>
       </c>
-      <c r="Q1" t="n">
+      <c r="Q1" s="1">
         <v>17</v>
       </c>
-      <c r="R1" t="n">
+      <c r="R1" s="1">
         <v>18</v>
       </c>
-      <c r="S1" t="n">
+      <c r="S1" s="1">
         <v>19</v>
       </c>
-      <c r="T1" t="n">
+      <c r="T1" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1">
         <v>21</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2">
         <v>22</v>
       </c>
-      <c r="G2" t="n">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1">
         <v>27</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="1">
         <v>28</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="1">
         <v>29</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="1">
         <v>30</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="1">
         <v>31</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="1">
         <v>32</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="1">
         <v>33</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="1">
         <v>34</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="1">
         <v>35</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="1">
         <v>36</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="1">
         <v>37</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="1">
         <v>38</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="1">
         <v>39</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1">
         <v>41</v>
       </c>
-      <c r="G3" t="n">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1">
         <v>47</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="1">
         <v>48</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="1">
         <v>49</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="1">
         <v>50</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="1">
         <v>51</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="1">
         <v>52</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="1">
         <v>53</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="1">
         <v>54</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="1">
         <v>55</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="1">
         <v>56</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="1">
         <v>57</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="1">
         <v>58</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="1">
         <v>59</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1">
         <v>61</v>
       </c>
-      <c r="G4" t="n">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1">
         <v>67</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="1">
         <v>68</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="1">
         <v>69</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="1">
         <v>70</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="1">
         <v>71</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="1">
         <v>72</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="1">
         <v>73</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="1">
         <v>74</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="1">
         <v>75</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="1">
         <v>76</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="1">
         <v>77</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="1">
         <v>78</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="1">
         <v>79</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1">
         <v>81</v>
       </c>
-      <c r="G5" t="n">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1">
         <v>87</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="1">
         <v>88</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="1">
         <v>89</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="1">
         <v>90</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="1">
         <v>91</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="1">
         <v>92</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="1">
         <v>93</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="1">
         <v>94</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="1">
         <v>95</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="1">
         <v>96</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="1">
         <v>97</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="1">
         <v>98</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="1">
         <v>99</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1">
         <v>101</v>
       </c>
-      <c r="G6" t="n">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1">
         <v>107</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="1">
         <v>108</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="1">
         <v>109</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="1">
         <v>110</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="1">
         <v>111</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="1">
         <v>112</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="1">
         <v>113</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="1">
         <v>114</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="1">
         <v>115</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="1">
         <v>116</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="1">
         <v>117</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="1">
         <v>118</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="1">
         <v>119</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1">
         <v>121</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1">
         <v>122</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="1">
         <v>123</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="1">
         <v>124</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="1">
         <v>125</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="1">
         <v>126</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="1">
         <v>127</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="1">
         <v>128</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="1">
         <v>129</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="1">
         <v>130</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="1">
         <v>131</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="1">
         <v>132</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="1">
         <v>133</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="1">
         <v>134</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="1">
         <v>135</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="1">
         <v>136</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="1">
         <v>137</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="1">
         <v>138</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7" s="1">
         <v>139</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1">
         <v>141</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1">
         <v>142</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="1">
         <v>143</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="1">
         <v>144</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="1">
         <v>145</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="1">
         <v>146</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="1">
         <v>147</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="1">
         <v>148</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="1">
         <v>149</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="1">
         <v>150</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="1">
         <v>151</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="1">
         <v>152</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="1">
         <v>153</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="1">
         <v>154</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="1">
         <v>155</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="1">
         <v>156</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="1">
         <v>157</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="1">
         <v>158</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8" s="1">
         <v>159</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1">
         <v>161</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1">
         <v>162</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="1">
         <v>163</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="1">
         <v>164</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="1">
         <v>165</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="1">
         <v>166</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="1">
         <v>167</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="1">
         <v>168</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="1">
         <v>169</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="1">
         <v>170</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="1">
         <v>171</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="1">
         <v>172</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="1">
         <v>173</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="1">
         <v>174</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="1">
         <v>175</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="1">
         <v>176</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="1">
         <v>177</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="1">
         <v>178</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="1">
         <v>179</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1">
         <v>181</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1">
         <v>182</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="1">
         <v>183</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="1">
         <v>184</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="1">
         <v>185</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="1">
         <v>186</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="1">
         <v>187</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="1">
         <v>188</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="1">
         <v>189</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="1">
         <v>190</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="1">
         <v>191</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="1">
         <v>192</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="1">
         <v>193</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" s="1">
         <v>194</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="1">
         <v>195</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" s="1">
         <v>196</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" s="1">
         <v>197</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10" s="1">
         <v>198</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10" s="1">
         <v>199</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" s="1">
         <v>200</v>
       </c>
     </row>
@@ -973,6 +982,6 @@
   <mergeCells count="1">
     <mergeCell ref="B2:F6"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>